--- a/Documenten/KT2/W 2.1/2_genormaliseerde database, datadictionary.xlsx
+++ b/Documenten/KT2/W 2.1/2_genormaliseerde database, datadictionary.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="47">
   <si>
     <t>Datum</t>
   </si>
@@ -138,6 +138,30 @@
   </si>
   <si>
     <t>String</t>
+  </si>
+  <si>
+    <t>(tabel)naam</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Waardenbereik</t>
+  </si>
+  <si>
+    <t>Verplicht</t>
+  </si>
+  <si>
+    <t>Omschrijving</t>
+  </si>
+  <si>
+    <t>01-01-1970..31-12-9999</t>
+  </si>
+  <si>
+    <t>1..9999</t>
+  </si>
+  <si>
+    <t>Aa..Zz; 0..9</t>
   </si>
 </sst>
 </file>
@@ -359,7 +383,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -392,13 +416,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -1348,186 +1368,336 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:S23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.85546875" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.85546875" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.85546875" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.85546875" customWidth="1"/>
-    <col min="14" max="14" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" style="33" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.140625" style="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" style="33" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="33" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.5703125" style="33" customWidth="1"/>
+    <col min="6" max="6" width="5.140625" style="33" customWidth="1"/>
+    <col min="7" max="7" width="4.85546875" style="33" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" style="33" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.140625" style="33" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.140625" style="33" customWidth="1"/>
+    <col min="11" max="11" width="4.85546875" style="33" customWidth="1"/>
+    <col min="12" max="12" width="10.5703125" style="33" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.42578125" style="33" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3.42578125" style="33" customWidth="1"/>
+    <col min="15" max="15" width="4.85546875" style="33" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" style="33"/>
+    <col min="17" max="17" width="6.140625" style="33" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="6.140625" style="33" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="34" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="32"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="R2" s="28"/>
+      <c r="S2" s="28"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B3" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" s="28" t="s">
+      <c r="C3" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="33">
+        <v>1</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="6"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="6"/>
+      <c r="R3" s="32"/>
+      <c r="S3" s="32"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="I2" s="6"/>
-      <c r="J2" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K2" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="L2" s="6"/>
-      <c r="M2" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="N2" s="33" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" s="6"/>
-      <c r="J3" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="K3" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="L3" s="6"/>
-      <c r="M3" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="N3" s="35" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="26"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="6"/>
+      <c r="C4" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="33">
+        <v>0</v>
+      </c>
+      <c r="F4" s="28"/>
       <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
       <c r="J4" s="28"/>
       <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="35"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="26"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="6"/>
+      <c r="R4" s="28"/>
+      <c r="S4" s="28"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
-      <c r="D5" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="28" t="s">
-        <v>37</v>
-      </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
-      <c r="J5" s="28"/>
+      <c r="J5" s="6"/>
       <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="28"/>
-      <c r="N5" s="35"/>
-    </row>
-    <row r="6" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="29"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30" t="s">
+      <c r="L5" s="28"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="28"/>
+      <c r="Q5" s="28"/>
+      <c r="R5" s="28"/>
+      <c r="S5" s="28"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="28"/>
+      <c r="Q6" s="28"/>
+      <c r="R6" s="28"/>
+      <c r="S6" s="28"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="33">
+        <v>1</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="28"/>
+      <c r="Q7" s="28"/>
+      <c r="R7" s="28"/>
+      <c r="S7" s="28"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="30" t="s">
+      <c r="B11" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="37"/>
-      <c r="N6" s="36"/>
+      <c r="C11" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="6"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="6"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="28"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="34">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documenten/KT2/W 2.1/2_genormaliseerde database, datadictionary.xlsx
+++ b/Documenten/KT2/W 2.1/2_genormaliseerde database, datadictionary.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="59">
   <si>
     <t>Datum</t>
   </si>
@@ -162,6 +162,42 @@
   </si>
   <si>
     <t>Aa..Zz; 0..9</t>
+  </si>
+  <si>
+    <t>Datum van de betreffende lijst</t>
+  </si>
+  <si>
+    <t>user_id van de persoon die de boodschappen haalt</t>
+  </si>
+  <si>
+    <t>Index van het list-item</t>
+  </si>
+  <si>
+    <t>Gewenste hoeveelheid</t>
+  </si>
+  <si>
+    <t>product_id van het item</t>
+  </si>
+  <si>
+    <t>user_id van de gebruiker die het item heeft besteld</t>
+  </si>
+  <si>
+    <t>id van het product</t>
+  </si>
+  <si>
+    <t>Naam van het product</t>
+  </si>
+  <si>
+    <t>Wiens favoriet het betreffende product is</t>
+  </si>
+  <si>
+    <t>De product_id van het betreffende product</t>
+  </si>
+  <si>
+    <t>id van de gebruiker</t>
+  </si>
+  <si>
+    <t>naam van de gebruiker</t>
   </si>
 </sst>
 </file>
@@ -1370,8 +1406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1442,6 +1478,9 @@
       <c r="D3" s="33">
         <v>1</v>
       </c>
+      <c r="E3" s="34" t="s">
+        <v>47</v>
+      </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="J3" s="28"/>
@@ -1463,6 +1502,9 @@
       </c>
       <c r="D4" s="33">
         <v>0</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>48</v>
       </c>
       <c r="F4" s="28"/>
       <c r="G4" s="6"/>
@@ -1526,6 +1568,9 @@
       <c r="D7" s="33">
         <v>1</v>
       </c>
+      <c r="E7" s="34" t="s">
+        <v>47</v>
+      </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
@@ -1554,6 +1599,9 @@
       <c r="D8" s="34">
         <v>1</v>
       </c>
+      <c r="E8" s="34" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
@@ -1568,6 +1616,9 @@
       <c r="D9" s="34">
         <v>1</v>
       </c>
+      <c r="E9" s="34" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
@@ -1582,6 +1633,9 @@
       <c r="D10" s="34">
         <v>1</v>
       </c>
+      <c r="E10" s="34" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
@@ -1596,6 +1650,9 @@
       <c r="D11" s="34">
         <v>1</v>
       </c>
+      <c r="E11" s="34" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
@@ -1616,6 +1673,9 @@
       <c r="D14" s="34">
         <v>1</v>
       </c>
+      <c r="E14" s="34" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
@@ -1630,14 +1690,17 @@
       <c r="D15" s="34">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" s="34" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B17" s="6"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>28</v>
       </c>
@@ -1650,8 +1713,11 @@
       <c r="D18" s="33">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" s="34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>27</v>
       </c>
@@ -1664,18 +1730,21 @@
       <c r="D19" s="34">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" s="34" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="28" t="s">
         <v>12</v>
       </c>
       <c r="B21" s="28"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="28" t="s">
         <v>37</v>
       </c>
       <c r="C22" s="6" t="s">
@@ -1684,8 +1753,11 @@
       <c r="D22" s="33">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" s="34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="28" t="s">
         <v>30</v>
       </c>
@@ -1698,8 +1770,12 @@
       <c r="D23" s="34">
         <v>1</v>
       </c>
+      <c r="E23" s="34" t="s">
+        <v>58</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>